--- a/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
+++ b/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA53E4-278D-4157-A1C0-8B41F31068D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A34D9-E9F3-4200-922C-1F7582E14C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
-  <si>
-    <t>function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>beta</t>
   </si>
@@ -61,24 +58,9 @@
     <t>dy/dx</t>
   </si>
   <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>Pr(&gt;|z|)</t>
   </si>
   <si>
-    <t>Conf. Int. Low</t>
-  </si>
-  <si>
-    <t>Cont. Int. Hi.</t>
-  </si>
-  <si>
-    <t>awareness ~ experience + floodzone</t>
-  </si>
-  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -88,22 +70,40 @@
     <t>floodzone</t>
   </si>
   <si>
-    <t>experience ~ awareness + floodzone</t>
-  </si>
-  <si>
     <t>awareness</t>
   </si>
   <si>
-    <t>floodzone ~ awareness + experience</t>
-  </si>
-  <si>
-    <t>perception ~ awareness + experience + floodzone</t>
-  </si>
-  <si>
     <t>VIF</t>
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">independent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">awareness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience </t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception </t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -248,11 +248,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -276,6 +289,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,15 +603,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDCA590-54F9-4188-AA17-62DDC29681D4}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -598,495 +619,378 @@
     <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>-0.47799999999999998</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>482.24400000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>1E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>482.24400000000003</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>0.186</v>
       </c>
-      <c r="I3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J3">
-        <v>3.5449999999999999</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M3">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.89300000000000002</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>482.24400000000003</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.307</v>
       </c>
-      <c r="I4">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J4">
-        <v>6.5579999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.215</v>
-      </c>
-      <c r="M4">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
         <v>-1.1659999999999999</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>415.46899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.53400000000000003</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>415.46899999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.155</v>
       </c>
-      <c r="I6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J6">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M6">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>415.46899999999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>0.26900000000000002</v>
       </c>
-      <c r="I7">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J7">
-        <v>6.9889999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.193</v>
-      </c>
-      <c r="M7">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
         <v>-1.252</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>407.92200000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.86399999999999999</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>407.92200000000003</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>0.246</v>
       </c>
-      <c r="I9">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J9">
-        <v>6.524</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="M9">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>407.92200000000003</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J10">
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.189</v>
-      </c>
-      <c r="M10">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
         <v>-0.51600000000000001</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>387.58300000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>387.58300000000003</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="I12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="K12">
+      <c r="I12" s="19">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L12">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-      <c r="M12">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.89600000000000002</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>387.58300000000003</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.23799999999999999</v>
       </c>
-      <c r="I13">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J13">
-        <v>4.9050000000000002</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M13">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
         <v>1.8759999999999999</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>387.58300000000003</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>0.499</v>
       </c>
-      <c r="I14">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J14">
-        <v>10.249000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="M14">
-        <v>0.59399999999999997</v>
+      <c r="I14" s="20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1102,16 +1006,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1119,66 +1023,50 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="12">
         <v>-0.47799999999999998</v>
@@ -1204,16 +1092,12 @@
         <v>1.3192612137203166</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14">
         <v>0.54100000000000004</v>
@@ -1233,26 +1117,14 @@
       <c r="J3" s="5">
         <v>0.186</v>
       </c>
-      <c r="K3" s="5">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3.5449999999999999</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15">
         <v>0.89300000000000002</v>
@@ -1272,28 +1144,16 @@
       <c r="J4" s="8">
         <v>0.307</v>
       </c>
-      <c r="K4" s="8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>6.5579999999999998</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0.215</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>-1.1659999999999999</v>
@@ -1319,16 +1179,12 @@
         <v>1.3458950201884252</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>0.53400000000000003</v>
@@ -1348,26 +1204,14 @@
       <c r="J6" s="5">
         <v>0.155</v>
       </c>
-      <c r="K6" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8">
         <v>0.92600000000000005</v>
@@ -1387,28 +1231,16 @@
       <c r="J7" s="8">
         <v>0.26900000000000002</v>
       </c>
-      <c r="K7" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L7" s="8">
-        <v>6.9889999999999999</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.193</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>-1.252</v>
@@ -1434,16 +1266,12 @@
         <v>1.4749262536873158</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>0.86399999999999999</v>
@@ -1463,26 +1291,14 @@
       <c r="J9" s="5">
         <v>0.246</v>
       </c>
-      <c r="K9" s="5">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>6.524</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8">
         <v>0.92400000000000004</v>
@@ -1502,20 +1318,8 @@
       <c r="J10" s="8">
         <v>0.26300000000000001</v>
       </c>
-      <c r="K10" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L10" s="8">
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0.189</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0.33600000000000002</v>
+      <c r="K10" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1539,76 +1343,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28800FC-7F4E-4747-92CD-4893F91EFB41}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>-0.51600000000000001</v>
@@ -1626,16 +1414,12 @@
         <v>387.58300000000003</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>0.10299999999999999</v>
@@ -1655,26 +1439,14 @@
       <c r="H3" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="I3" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" s="6">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L3" s="5">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>0.89600000000000002</v>
@@ -1694,26 +1466,14 @@
       <c r="H4" s="5">
         <v>0.23799999999999999</v>
       </c>
-      <c r="I4" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4.9050000000000002</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8">
         <v>1.8759999999999999</v>
@@ -1733,20 +1493,8 @@
       <c r="H5" s="8">
         <v>0.499</v>
       </c>
-      <c r="I5" s="8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>10.249000000000001</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.59399999999999997</v>
+      <c r="I5" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
+++ b/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A34D9-E9F3-4200-922C-1F7582E14C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545AD6-F865-4195-B4DB-7EEF30B6878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,6 +110,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -297,6 +300,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1024,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,14 +1095,14 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>482.24400000000003</v>
+      <c r="G2" s="21">
+        <v>482</v>
       </c>
       <c r="H2" s="3">
         <f>1-E2</f>
         <v>0.75800000000000001</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="24">
         <f>1/(1-E2)</f>
         <v>1.3192612137203166</v>
       </c>
@@ -1109,11 +1124,9 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>482.24400000000003</v>
-      </c>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="5">
         <v>0.186</v>
       </c>
@@ -1136,11 +1149,9 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
-        <v>482.24400000000003</v>
-      </c>
+      <c r="G4" s="23"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="8">
         <v>0.307</v>
       </c>
@@ -1167,14 +1178,14 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>415.46899999999999</v>
+      <c r="G5" s="3">
+        <v>415</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H8" si="0">1-E5</f>
         <v>0.74299999999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:I10" si="1">1/(1-E5)</f>
         <v>1.3458950201884252</v>
       </c>
@@ -1196,11 +1207,9 @@
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
-        <v>415.46899999999999</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="5">
         <v>0.155</v>
       </c>
@@ -1223,11 +1232,9 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
-        <v>415.46899999999999</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="8">
         <v>0.26900000000000002</v>
       </c>
@@ -1254,14 +1261,14 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
-        <v>407.92200000000003</v>
+      <c r="G8" s="3">
+        <v>407</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>0.67799999999999994</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="25">
         <f t="shared" ref="I8:I10" si="2">1/(1-E8)</f>
         <v>1.4749262536873158</v>
       </c>
@@ -1283,11 +1290,9 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <v>407.92200000000003</v>
-      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="5">
         <v>0.246</v>
       </c>
@@ -1310,11 +1315,9 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>407.92200000000003</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="8">
         <v>0.26300000000000001</v>
       </c>
@@ -1323,7 +1326,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
@@ -1346,7 +1352,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,14 +1410,14 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0.56100000000000005</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
-        <v>387.58300000000003</v>
+      <c r="G2" s="3">
+        <v>387</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -1427,15 +1433,11 @@
       <c r="D3" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.56100000000000005</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>387.58300000000003</v>
-      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="5">
         <v>2.7E-2</v>
       </c>
@@ -1454,15 +1456,11 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.56100000000000005</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <v>387.58300000000003</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="5">
         <v>0.23799999999999999</v>
       </c>
@@ -1481,15 +1479,11 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.56100000000000005</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <v>387.58300000000003</v>
-      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="8">
         <v>0.499</v>
       </c>
@@ -1498,8 +1492,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
+++ b/analysis/automated/results/annotated/probit_robustnesscheck_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545AD6-F865-4195-B4DB-7EEF30B6878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF476D7E-E0BE-4F09-A6D5-40BD59E7D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>beta</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">perception </t>
+  </si>
+  <si>
+    <t>R_2</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
